--- a/data/trans_dic/P62A$viudedad-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P62A$viudedad-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,12 +725,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,86</t>
+          <t>0,0; 3,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,85</t>
+          <t>0,0; 4,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,47 +740,47 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,54; 26,51</t>
+          <t>15,92; 26,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>32,35; 49,7</t>
+          <t>32,19; 49,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>35,31; 52,24</t>
+          <t>35,07; 50,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>26,31; 43,12</t>
+          <t>26,41; 43,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,5; 11,26</t>
+          <t>5,73; 11,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,56; 22,09</t>
+          <t>13,54; 22,19</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>15,25; 23,78</t>
+          <t>15,75; 24,09</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11,66; 19,26</t>
+          <t>11,61; 19,4</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,91; 17,78</t>
+          <t>12,06; 18,02</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,57</t>
+          <t>0,0; 2,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,99</t>
+          <t>0,0; 1,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,92</t>
+          <t>0,0; 1,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,23; 20,65</t>
+          <t>11,14; 20,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>51,43; 66,91</t>
+          <t>51,66; 67,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,43; 49,11</t>
+          <t>34,13; 48,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>26,39; 40,5</t>
+          <t>27,45; 41,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,33; 11,42</t>
+          <t>5,28; 11,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>20,13; 29,43</t>
+          <t>20,5; 29,43</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15,49; 22,81</t>
+          <t>15,38; 23,17</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,89; 18,99</t>
+          <t>11,74; 18,79</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,41; 14,83</t>
+          <t>9,18; 14,96</t>
         </is>
       </c>
     </row>
@@ -1019,47 +1020,47 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,77; 19,54</t>
+          <t>9,81; 20,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>40,87; 58,65</t>
+          <t>41,3; 58,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>39,19; 55,45</t>
+          <t>38,28; 56,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>31,48; 49,75</t>
+          <t>31,44; 49,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 14,49</t>
+          <t>1,03; 14,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,42; 26,98</t>
+          <t>17,06; 26,77</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,84; 27,52</t>
+          <t>17,28; 27,26</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12,97; 22,14</t>
+          <t>12,53; 22,31</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,18; 14,44</t>
+          <t>3,25; 15,2</t>
         </is>
       </c>
     </row>
@@ -1159,47 +1160,47 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,74; 18,9</t>
+          <t>10,74; 19,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>38,52; 54,04</t>
+          <t>39,58; 54,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>36,28; 49,92</t>
+          <t>36,41; 49,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>29,07; 42,78</t>
+          <t>29,21; 43,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,82; 8,24</t>
+          <t>3,78; 8,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,41; 27,08</t>
+          <t>17,87; 26,64</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,12; 24,87</t>
+          <t>17,16; 24,52</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,01; 21,65</t>
+          <t>14,06; 21,07</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,95; 12,92</t>
+          <t>7,8; 12,63</t>
         </is>
       </c>
     </row>
@@ -1284,12 +1285,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,94</t>
+          <t>0,0; 0,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,27</t>
+          <t>0,0; 1,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,47 +1300,47 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,99; 18,85</t>
+          <t>13,98; 18,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>45,35; 53,77</t>
+          <t>44,97; 53,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>39,83; 47,17</t>
+          <t>39,81; 47,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>32,11; 39,55</t>
+          <t>31,94; 39,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,29; 8,72</t>
+          <t>3,17; 8,94</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>19,41; 23,81</t>
+          <t>19,62; 24,17</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18,14; 22,27</t>
+          <t>18,24; 22,3</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>14,3; 18,16</t>
+          <t>14,29; 18,06</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,11; 13,0</t>
+          <t>7,22; 12,97</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, recibe una pensión de viudedad</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>965</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2075</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>37947</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>51848</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>71513</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>51466</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>13869</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>52812</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>73588</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>51466</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>51816</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5812</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 10085</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1855</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>28644; 47391</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>40770; 63009</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>57521; 83276</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>39389; 64399</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>9743; 19546</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>40322; 66086</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>59125; 90449</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>39306; 65698</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>42200; 63070</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1061</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>964</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>30974</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>90939</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>85957</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>69291</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>14692</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>92000</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>86921</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>70226</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>45665</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5266</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4834</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4704</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>22083; 40760</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>79243; 103118</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>71596; 101381</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>55950; 84526</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>9736; 20373</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>77067; 110630</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>70151; 105634</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>55013; 88011</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>35122; 57226</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>28337</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>59415</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>69848</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>54230</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>18670</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>59415</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>69848</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>54230</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>47007</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1948</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2187</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2007</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>19709; 40550</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>49485; 69496</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>56610; 83068</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>42590; 66595</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3588; 49037</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>46775; 73388</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>54703; 86294</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>39773; 70827</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>17820; 83365</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>32347</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>81304</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>96032</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>89490</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>13746</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>81304</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>96032</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>89490</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>46093</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1735</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2105</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1863</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>23902; 42294</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>69761; 95617</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>81710; 111300</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>72630; 107059</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>8898; 19715</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>65430; 97530</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>80486; 115004</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>72221; 108213</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>35718; 57866</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3039</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>129604</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>283506</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>323350</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>264478</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>60976</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>285531</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>326389</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>265412</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>190581</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6720</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 12367</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5579</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>112018; 150339</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>259080; 307049</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>297014; 352025</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>235428; 293005</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>29687; 83784</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>257740; 317638</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>294999; 360593</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>234046; 295889</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>125638; 225476</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>